--- a/PopulationSize_RepDD.xlsx
+++ b/PopulationSize_RepDD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4f5e485ed766aa2/Pictures/Documents/Journal Publications/Manuscripts/LILA/Pomacea/Population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{20CDC804-FD46-4E39-93B6-9B1163B1E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5569459-D263-4B75-91D9-FB8CCFD678C2}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{20CDC804-FD46-4E39-93B6-9B1163B1E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B26ED6-726C-4F42-BE36-6B4639342FA8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7E5FB4C3-E5AC-46D6-8A4B-1AB06A41F2A8}"/>
+    <workbookView xWindow="19110" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{7E5FB4C3-E5AC-46D6-8A4B-1AB06A41F2A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,12 +141,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCDF31E0-E345-4FF0-8D57-D1C6417DD2DD}" type="CELLRANGE">
+                    <a:fld id="{22615210-DD04-48F6-99E6-980F067FC9D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -324,7 +331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36DFED69-A301-467D-AC8F-A990E9EE1600}" type="CELLRANGE">
+                    <a:fld id="{89870C7D-AD39-40ED-875F-D44EBE613B96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -357,7 +364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70957B4D-075C-4D7B-9F13-DA92C8AE51F0}" type="CELLRANGE">
+                    <a:fld id="{BA362639-E5D5-48E6-863B-BEFAED2A058B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -390,7 +397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D24ADE68-A835-400E-9C0D-7711F6F9C9FA}" type="CELLRANGE">
+                    <a:fld id="{805BA4DD-82BB-434F-94A7-5E36BE684A1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -423,7 +430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F91038F5-336B-44A8-A683-6D019BF03B99}" type="CELLRANGE">
+                    <a:fld id="{0110DFB2-CD6D-407C-BACB-E904407B97DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -456,7 +463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D30FB651-CAFC-478D-BEFB-F6356F04282B}" type="CELLRANGE">
+                    <a:fld id="{3834A44B-DC9B-4500-8F06-820DCF877599}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -489,7 +496,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7E92669-8144-4760-842E-EE07345B81F2}" type="CELLRANGE">
+                    <a:fld id="{8D366813-16A3-45E2-8D5D-508E2E05177A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -522,7 +529,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7290CBC7-1CCC-4F61-BE70-EA10E538A80F}" type="CELLRANGE">
+                    <a:fld id="{599C7AB4-BB25-4EEB-BDD1-E80CDB0E43E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -555,7 +562,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7A10DFC-EE0A-4B98-B959-B5B170052069}" type="CELLRANGE">
+                    <a:fld id="{C850A122-5956-4A7F-8033-33789D9C5E84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -738,7 +745,435 @@
             <a:effectLst/>
           </c:spPr>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0213772C-47E1-4D58-B450-20E55F43F16D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FFE394AF-3624-4DB5-BC3C-57398ED5A4EC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2447BEF9-6BC7-4746-8A55-389933CBB71C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2FF48E14-6C5C-426E-84F5-2E04FC10A06B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{072C072C-8D16-4ED7-ADEB-BA901097B703}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4AD36B75-E112-4D5B-9C95-9B450D56787E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1DF638A7-0A39-4DFD-A04D-533BE977478E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{20FE22BE-D2CB-421A-AF9B-C0B4E8CB9C1B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CBFF164E-3AE1-471A-81B3-C34E7F4902EA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AA965FA2-74DC-4BA0-A8B6-0496E98AE564}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{04461E78-3526-4FCB-BB0C-D967122285C8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{10B33B08-7217-49D8-8731-26CD4AA7325E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-1BE3-451F-8DC0-019A45944E3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -832,6 +1267,50 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$A$22:$A$33</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BAD3-4D30-9885-F92ED0BA698C}"/>
             </c:ext>
@@ -1209,7 +1688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F65CBB43-32DB-4B87-8EC6-01305F5CB916}" type="CELLRANGE">
+                    <a:fld id="{8E36893A-7AF3-43C3-A3AE-82D536F2A3ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1243,7 +1722,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05C9AE33-1AAC-4F85-B454-A78662F61E6A}" type="CELLRANGE">
+                    <a:fld id="{480447D4-8A01-4F27-BE40-86FD7D2D5E8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1277,7 +1756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{059B0132-9EE1-4BE1-8289-F1E718219BBE}" type="CELLRANGE">
+                    <a:fld id="{BFF43AC8-A43C-464B-827A-89E9304B9CB1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1311,7 +1790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3194BDA1-D737-4925-991B-40CCACE8C541}" type="CELLRANGE">
+                    <a:fld id="{962C7BCE-6703-46BE-8D33-7267BBD0A516}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1345,7 +1824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29324C17-5409-44BE-8058-63338A868A4F}" type="CELLRANGE">
+                    <a:fld id="{2974DC9E-6005-44ED-860F-5D37F34E085A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1379,7 +1858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{463D123A-78BF-4F79-BF53-F340E0A8087D}" type="CELLRANGE">
+                    <a:fld id="{C95C4EC5-EBF1-41AC-832A-32F3B15E95A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1413,7 +1892,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E7A5A92-3BE8-4759-9698-C8C9A38F831F}" type="CELLRANGE">
+                    <a:fld id="{4BB7160F-F3D4-49E2-A07C-94AA3BD67B49}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1447,7 +1926,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14A41F2F-BAEE-45C8-A3E2-39B0B5FA317E}" type="CELLRANGE">
+                    <a:fld id="{9F7C62A6-6CE0-4923-A0DB-BDD0E9FCA072}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1481,7 +1960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B33E415-982D-4887-8BA5-9DEE52C5B412}" type="CELLRANGE">
+                    <a:fld id="{0C5DA942-3EED-4353-8882-1AAF8CDC0294}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1515,7 +1994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8067CD1C-ED83-406E-AEAE-1C70F9688F06}" type="CELLRANGE">
+                    <a:fld id="{6545554C-7663-4920-A47F-1E33921E0EBA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1549,7 +2028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35E70066-666A-4E09-91A2-4F70F26B6B7C}" type="CELLRANGE">
+                    <a:fld id="{19739637-A493-4BAE-B552-264A539D20CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1583,7 +2062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{387EB0CD-13A3-4297-9B9C-B6EFC626A25D}" type="CELLRANGE">
+                    <a:fld id="{77A4C1CE-F51F-424F-8CA6-722165430996}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4191,6 +4670,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4490,14 +4973,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2143131-87F5-4AA4-9984-C0504AF0BF42}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" activeCellId="1" sqref="A2:B18 I2:I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="8.77734375" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.77734375" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -5398,7 +5882,7 @@
         <v>0.3</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G22:G30" si="9">C25+D25-E25-F25</f>
+        <f t="shared" ref="G25:G30" si="9">C25+D25-E25-F25</f>
         <v>2.4900000000000002</v>
       </c>
       <c r="H25">
@@ -5409,7 +5893,7 @@
         <v>100</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J23:J30" si="10">G25*I25</f>
+        <f t="shared" ref="J25:J30" si="10">G25*I25</f>
         <v>249.00000000000003</v>
       </c>
       <c r="K25">
@@ -5632,7 +6116,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -5668,7 +6152,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -5704,7 +6188,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -5750,8 +6234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2205BAF6-B8CD-4D52-BCF6-FA2A07C12B4E}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6092,7 +6576,7 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>1071.4285714285713</v>
       </c>
     </row>
@@ -6103,7 +6587,7 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>714.28571428571422</v>
       </c>
     </row>
@@ -6114,7 +6598,7 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>1428.5714285714284</v>
       </c>
     </row>
